--- a/medicine/Data/merge.xlsx
+++ b/medicine/Data/merge.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A60"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
